--- a/Proyecto Unidad I/Catálogos.xlsx
+++ b/Proyecto Unidad I/Catálogos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Catálogo ORIGEN"/>
@@ -9285,7 +9285,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9295,6 +9295,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -9382,7 +9388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9441,8 +9447,8 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -9459,7 +9465,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -9474,16 +9480,19 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -9803,11 +9812,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="37" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="38" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="29" t="s">
         <v>2992</v>
       </c>
@@ -9851,7 +9860,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9860,7 +9869,7 @@
     <col min="3" max="3" style="4" width="63.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A1" s="8" t="s">
         <v>2992</v>
       </c>
@@ -9969,7 +9978,7 @@
     <col min="3" max="3" style="4" width="68.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A1" s="8" t="s">
         <v>2992</v>
       </c>
@@ -10047,7 +10056,7 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10056,7 +10065,7 @@
     <col min="3" max="3" style="4" width="21.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -10078,7 +10087,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -10089,7 +10098,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -10100,7 +10109,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -10111,7 +10120,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
@@ -10122,7 +10131,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="6" t="s">
         <v>118</v>
       </c>
@@ -10133,7 +10142,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="6" t="s">
         <v>129</v>
       </c>
@@ -10144,7 +10153,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="6" t="s">
         <v>337</v>
       </c>
@@ -10155,7 +10164,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="6" t="s">
         <v>396</v>
       </c>
@@ -10166,7 +10175,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="6" t="s">
         <v>411</v>
       </c>
@@ -10177,7 +10186,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="6" t="s">
         <v>449</v>
       </c>
@@ -10188,7 +10197,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="6" t="s">
         <v>493</v>
       </c>
@@ -10199,7 +10208,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="6" t="s">
         <v>574</v>
       </c>
@@ -10210,7 +10219,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="6" t="s">
         <v>657</v>
       </c>
@@ -10221,7 +10230,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="6" t="s">
         <v>779</v>
       </c>
@@ -10232,7 +10241,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A17" s="6" t="s">
         <v>899</v>
       </c>
@@ -10243,7 +10252,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="6" t="s">
         <v>1003</v>
       </c>
@@ -10254,7 +10263,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="6" t="s">
         <v>1037</v>
       </c>
@@ -10265,7 +10274,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A20" s="6" t="s">
         <v>1056</v>
       </c>
@@ -10276,7 +10285,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A21" s="6" t="s">
         <v>1100</v>
       </c>
@@ -10287,7 +10296,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A22" s="6" t="s">
         <v>2112</v>
       </c>
@@ -10298,7 +10307,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A23" s="6" t="s">
         <v>2317</v>
       </c>
@@ -10309,7 +10318,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A24" s="6" t="s">
         <v>2334</v>
       </c>
@@ -10320,7 +10329,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A25" s="6" t="s">
         <v>2344</v>
       </c>
@@ -10331,7 +10340,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A26" s="6" t="s">
         <v>2397</v>
       </c>
@@ -38022,13 +38031,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="35" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="36" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="36" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="37" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -38270,14 +38279,14 @@
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="33"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="32"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -38288,7 +38297,7 @@
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="34"/>
+      <c r="H19" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
